--- a/Companies/Iron & Steel/JSW Steel Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Iron & Steel/JSW Steel Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="9" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>33,738.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>33,310.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34,910.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32,223.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>30,778.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>32,223.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>34,910.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33,310.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>33,738.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>34910</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>30778</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>32991.8</v>
       </c>
     </row>
     <row r="3">
@@ -550,32 +518,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>431.00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>431.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>431</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>431</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>431</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>33,738.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>33,310.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35,341.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32,654.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>30,778.00</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>32,654.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35,341.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>33,310.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>33,738.00</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>35341</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>30778</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>33164.2</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>16,211.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19,043.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19,090.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>16,243.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>16,899.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16,243.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19,090.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19,043.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>16,211.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>19090</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>16211</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>17497.2</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>163.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>121.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>81.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>77.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>163.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>163</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>104.2</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,294.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-2,687.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>578.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>518.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-524.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>518.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>578.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-2,687.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,294.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1294</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-2687</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-164.2</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>2,927.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,800.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2,937.00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2,800.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2,927.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>2937</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>2800</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>2888</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>576.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>606.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>585.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>660.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>627.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>660.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>585.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>606.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>576.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>660</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>576</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>610.8</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,359.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,351.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,460.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,460.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,488.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,460.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1,460.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1,351.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,359.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>1488</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1351</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1423.6</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>5,753.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10,406.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7,769.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>7,940.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>9,014.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7,940.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7,769.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10,406.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5,753.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>10406</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>5753</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>8176.4</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>5,539.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,428.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2,982.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2,815.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>3,153.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2,815.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2,982.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4,428.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5,539.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5539</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3783.4</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>429.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>386.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>451.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>396.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>439.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>396.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>451.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>386.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>429.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>451</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>386</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>420.2</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>5,968.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4,814.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,433.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,211.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>3,592.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,211.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,433.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4,814.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5,968.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>5968</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>3211</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>4203.6</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,531.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1,551.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1,569.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,590.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,668.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,590.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1,569.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,551.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,531.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1668</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1531</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1581.8</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>4,437.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3,263.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,864.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,621.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,924.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,621.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,864.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3,263.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4,437.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>4437</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1621</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2621.8</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>201.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>-240.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>-342.00</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-240.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>201.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>201</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-342</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-127</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>4,638.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3,263.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,624.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,621.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,582.00</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,621.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,624.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3,263.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4,638.00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>4638</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1582</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2545.6</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>1,725.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>847.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>617.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>416.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>283.00</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>416.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>617.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>847.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1,725.00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1725</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>283</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>777.6</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2,913.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2,416.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,007.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,205.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>1,299.00</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,205.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,007.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2,416.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2,913.00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2913</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>1768</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>2,913.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2,416.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1,007.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1,205.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1,299.00</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1,205.00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1,007.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2,416.00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2,913.00</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>2913</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1007</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>1768</v>
       </c>
     </row>
     <row r="24">
@@ -1332,37 +1129,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>243.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>244.00</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>244.00</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>244.00</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>244.00</t>
         </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>243.00</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>244</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>243</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>243.8</v>
       </c>
     </row>
     <row r="25"/>
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>5.33</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>12.02</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>7.27</v>
       </c>
     </row>
     <row r="28">
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>5.31</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>7.24</v>
       </c>
     </row>
     <row r="29"/>
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>5.33</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>12.02</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>7.27</v>
       </c>
     </row>
     <row r="32">
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>5.31</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>9.88</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>7.24</v>
       </c>
     </row>
     <row r="33"/>
